--- a/biology/Zoologie/Careproctus/Careproctus.xlsx
+++ b/biology/Zoologie/Careproctus/Careproctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Careproctus est un genre de poissons de l'ordre des Scorpaeniformes et de la famille des Liparidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase[3], il existe, au 27 février 2021, 122 espèces du genre Careproctus :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase, il existe, au 27 février 2021, 122 espèces du genre Careproctus :
 Careproctus abbreviatus Burke, 1930
 Careproctus acaecus Andriashev, 1991
 Careproctus acanthodes Gilbert &amp; Burke, 1912
@@ -636,12 +650,12 @@
 Careproctus vladibeckeri Andriashev &amp; Stein, 1998
 Careproctus zachirus Kido, 1985
 Careproctus zispi Andriashev &amp; Stein, 1998
-Selon WoRMS[4], il existe, au 27 février 2021, 126 espèces du genre Careproctus. En plus des espèces citées précédemment s'ajoutent 4 autres espèces:
+Selon WoRMS, il existe, au 27 février 2021, 126 espèces du genre Careproctus. En plus des espèces citées précédemment s'ajoutent 4 autres espèces:
 Careproctus fulvus Chernova, 2014
 Careproctus herwigi Andriashev, 1991
 Careproctus rausuensis Machi, Nobetsu &amp; Yabe, 2012
 Careproctus smirnovi Andriashev, 1991
-Le Catalogue des poissons d'Eschmeyer (Eschmeyer's Catalog of Fishes) recense quant à lui 128 espèces du genre Careproctus[5].
+Le Catalogue des poissons d'Eschmeyer (Eschmeyer's Catalog of Fishes) recense quant à lui 128 espèces du genre Careproctus.
 </t>
         </is>
       </c>
